--- a/Assignment 1/overview.xlsx
+++ b/Assignment 1/overview.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A297217-39C1-47D9-84F7-2242BAB4048E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84EC4B7D-F24E-437C-B92E-8CD4D9742E62}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="46">
   <si>
     <t>Duration of usage of weather apps (time)</t>
   </si>
@@ -152,13 +152,19 @@
   </si>
   <si>
     <t xml:space="preserve">total amount </t>
+  </si>
+  <si>
+    <t>&amp;</t>
+  </si>
+  <si>
+    <t>\\</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,6 +176,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -192,14 +206,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -478,240 +497,442 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:C20"/>
+      <selection activeCell="F20" sqref="A1:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.7109375" customWidth="1"/>
-    <col min="2" max="2" width="64.42578125" customWidth="1"/>
-    <col min="3" max="3" width="39.5703125" customWidth="1"/>
+    <col min="2" max="2" width="3" customWidth="1"/>
+    <col min="3" max="3" width="64.42578125" customWidth="1"/>
+    <col min="4" max="4" width="4.5703125" customWidth="1"/>
+    <col min="5" max="5" width="39.5703125" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F1" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>38</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
         <v>37</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F2" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>36</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
         <v>35</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F3" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>34</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
         <v>33</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F4" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>32</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
         <v>31</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F5" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" t="s">
         <v>28</v>
       </c>
-      <c r="C6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
         <v>26</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F7" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F8" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
         <v>20</v>
       </c>
-      <c r="C10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="C11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
         <v>16</v>
       </c>
-      <c r="C12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
         <v>14</v>
       </c>
-      <c r="C13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
         <v>12</v>
       </c>
-      <c r="C14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s">
         <v>10</v>
       </c>
-      <c r="C15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>9</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
         <v>8</v>
       </c>
-      <c r="C16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" t="s">
         <v>6</v>
       </c>
-      <c r="C17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" t="s">
         <v>4</v>
       </c>
-      <c r="C18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>3</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
         <v>2</v>
       </c>
-      <c r="C19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" t="s">
         <v>0</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" t="s">
         <v>42</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F1" r:id="rId1" xr:uid="{5712A199-4282-46A0-BCF4-81BD018AC804}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{0C7693D7-0CD0-4F5D-BD58-9F6D7CF5D9E7}"/>
+    <hyperlink ref="F3" r:id="rId3" xr:uid="{12A7AF46-3CCB-40B6-84DC-3DECF06160D9}"/>
+    <hyperlink ref="F5" r:id="rId4" xr:uid="{8A09F957-4D60-464E-90BC-296206DE54C0}"/>
+    <hyperlink ref="F7" r:id="rId5" xr:uid="{6E646329-3ED4-489B-BF56-A5CF1ACA9CE4}"/>
+    <hyperlink ref="F9" r:id="rId6" xr:uid="{A1F60C0A-5827-4DA7-A0F7-904FF6A9FD99}"/>
+    <hyperlink ref="F11" r:id="rId7" xr:uid="{9EBC8878-F26F-4756-8B40-7AB4277D8037}"/>
+    <hyperlink ref="F13" r:id="rId8" xr:uid="{DABBBDC5-035F-4EBA-A3EE-1BFAB130DAB0}"/>
+    <hyperlink ref="F15" r:id="rId9" xr:uid="{63A0E850-CFC9-4AFE-8CB1-C369E3F60EB8}"/>
+    <hyperlink ref="F17" r:id="rId10" xr:uid="{7C5F7DCC-24F0-4F6E-93F4-2A9A19B50571}"/>
+    <hyperlink ref="F19" r:id="rId11" xr:uid="{CCE358A8-F92F-4733-A3F5-8DFAD206CCC4}"/>
+    <hyperlink ref="F4" r:id="rId12" xr:uid="{AF989801-48F6-4DF1-AAFA-54ED50B67952}"/>
+    <hyperlink ref="F6" r:id="rId13" xr:uid="{EFC63633-D0B1-4810-9552-29046A9F24B3}"/>
+    <hyperlink ref="F8" r:id="rId14" xr:uid="{1B81D174-12CF-44AF-9CD3-A0C53CC8AFC3}"/>
+    <hyperlink ref="F10" r:id="rId15" xr:uid="{C56CDAA2-9B76-4582-B692-FFBC8A7ED298}"/>
+    <hyperlink ref="F12" r:id="rId16" xr:uid="{BDC20A3A-CC2A-4FF7-92B4-7D4343647D61}"/>
+    <hyperlink ref="F14" r:id="rId17" xr:uid="{46DCA496-366C-4D9A-BBBE-7B1E04FA8C9B}"/>
+    <hyperlink ref="F16" r:id="rId18" xr:uid="{FE64B7E8-00D1-46E3-B239-DCDC8C6D6DD9}"/>
+    <hyperlink ref="F18" r:id="rId19" xr:uid="{27A1745B-6EBD-4B77-9241-CA4B917C361C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
 </worksheet>
 </file>